--- a/data/trans_dic/CONS_ANT-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ANT-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>1,23%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,27</t>
+          <t>0,07; 1,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,63</t>
+          <t>0,5; 2,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,95</t>
+          <t>0,3; 1,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,87</t>
+          <t>0,34; 1,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,73; 6,57</t>
+          <t>1,98; 6,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,83</t>
+          <t>0,8; 3,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,14</t>
+          <t>0,32; 1,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,01</t>
+          <t>1,48; 3,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,1</t>
+          <t>0,65; 2,14</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1,61%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>1,68%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,66%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,82%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>1,77%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,8; 3,69</t>
+          <t>0,33; 2,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,15</t>
+          <t>0,63; 3,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,94</t>
+          <t>0,63; 3,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,52</t>
+          <t>0,18; 1,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,22</t>
+          <t>0,84; 4,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,92</t>
+          <t>0,71; 3,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,84</t>
+          <t>0,34; 1,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,06; 2,73</t>
+          <t>0,95; 3,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,45</t>
+          <t>0,87; 3,0</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>3,79%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,89</t>
+          <t>0,19; 1,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,52; 6,76</t>
+          <t>0,4; 5,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,32</t>
+          <t>1,56; 6,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,95; 9,59</t>
+          <t>0,28; 2,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,79; 8,06</t>
+          <t>2,3; 9,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,24</t>
+          <t>2,21; 12,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,06; 5,4</t>
+          <t>0,33; 1,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,89; 6,34</t>
+          <t>0,57; 5,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,3</t>
+          <t>2,27; 6,41</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>2,62%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,03</t>
+          <t>0,4; 1,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,08</t>
+          <t>1,24; 4,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,83</t>
+          <t>0,9; 3,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,07; 5,33</t>
+          <t>0,6; 2,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,49; 3,39</t>
+          <t>0,59; 3,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,15</t>
+          <t>1,96; 5,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,78; 3,77</t>
+          <t>0,67; 1,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,62; 2,93</t>
+          <t>1,11; 3,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,72; 1,68</t>
+          <t>1,75; 3,82</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>2,16%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,72; 4,09</t>
+          <t>0,46; 3,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,48</t>
+          <t>0,85; 5,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,54</t>
+          <t>0,64; 4,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,09; 5,87</t>
+          <t>0,75; 2,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,23; 8,2</t>
+          <t>3,13; 10,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,5</t>
+          <t>0,98; 4,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,87</t>
+          <t>0,85; 2,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,59; 5,57</t>
+          <t>2,74; 7,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,14</t>
+          <t>1,12; 3,76</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>1,46%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3,33%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,36%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,04%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>0,62%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3,3%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>2,67%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,56%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>0,85%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>3,31%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>2,83%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,72%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>0,23; 4,24</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 12,45</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>0; 11,83</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,99; 9,29</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,29; 2,75</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>0,22; 1,56</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2,13; 4,97</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>0; 9,99</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>1,86; 3,8</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0,24; 1,19</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>0,4; 1,81</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2,11; 5,42</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>0; 5,61</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>1,88; 4,24</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0,38; 1,29</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>2,15%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,3; 2,55</t>
+          <t>0,54; 1,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,83; 3,0</t>
+          <t>1,27; 2,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,08</t>
+          <t>1,22; 2,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,9; 3,41</t>
+          <t>0,7; 1,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,61; 3,95</t>
+          <t>2,32; 4,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,29</t>
+          <t>1,87; 3,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,73; 2,69</t>
+          <t>0,74; 1,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,41; 3,31</t>
+          <t>2,1; 3,32</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,69; 1,08</t>
+          <t>1,72; 2,72</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de medicamentos antibióticos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5033</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2103</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1218</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>10534</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4928</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1735</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>15567</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>7030</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>108; 1498</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1824; 10462</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>899; 4386</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>493; 2495</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5932; 18252</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2210; 9764</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>925; 3279</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>9866; 24032</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3723; 12255</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>786</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3280</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5326</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4294</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1384</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>10539</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>7574</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>264; 1873</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2030; 11191</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1224; 6729</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>193; 1327</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2185; 10940</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1650; 9011</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>644; 2659</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>5532; 17941</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>3725; 12813</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1013</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>9408</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5669</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4336</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1689</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>14424</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>10005</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>305; 2599</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1891; 24298</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2830; 11912</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>178; 1798</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2249; 9479</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1829; 10316</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>738; 3457</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3263; 31134</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5983; 16908</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1603</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>12788</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5931</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2280</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>11555</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>10437</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3883</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>24343</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>16368</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>687; 3109</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>6667; 23309</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2766; 11010</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1067; 4565</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3735; 20870</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>6188; 16410</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2316; 6270</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>12981; 36235</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>10925; 23859</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1097</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4535</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2663</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2068</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>24122</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3929</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3165</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>28657</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>6592</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>353; 2440</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1781; 11199</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>960; 6612</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>996; 3720</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>13258; 44333</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1514; 7739</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1790; 5345</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>17409; 48109</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3429; 11494</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>661</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5558</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>737</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>16151</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1398</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>21709</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>106; 1917</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 20769</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1106</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>265; 1841</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>10426; 24351</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1142</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>646; 2952</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>13838; 35610</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1166</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>5677</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>42536</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>19645</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>7578</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>72704</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>27924</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>13255</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>115240</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>47568</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>3694; 8362</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>26484; 59966</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>13956; 27926</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>5240; 10205</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>51290; 94224</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>20091; 37946</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>10496; 17255</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>89980; 142129</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>38095; 60225</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_ANT-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ANT-Clase-trans_dic.xlsx
@@ -1246,7 +1246,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 1106</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 1142</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 1166</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/CONS_ANT-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ANT-Clase-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos antibióticos</t>
+          <t>Consumo de medicamentos antibióticos (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1448,7 +1448,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos antibióticos</t>
+          <t>Consumo de medicamentos antibióticos (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_ANT-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ANT-Clase-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,07; 1,03</t>
+          <t>0,05; 0,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,85</t>
+          <t>0,51; 2,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,75</t>
+          <t>0,35; 1,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,98; 6,11</t>
+          <t>1,98; 6,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,14</t>
+          <t>0,24; 0,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 3,61</t>
+          <t>1,38; 3,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,31</t>
+          <t>0,23; 2,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,63; 3,45</t>
+          <t>0,62; 3,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,22</t>
+          <t>0,26; 1,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,84; 4,21</t>
+          <t>0,83; 3,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,4</t>
+          <t>0,34; 1,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,07</t>
+          <t>1,01; 3,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,59</t>
+          <t>0,29; 1,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 5,11</t>
+          <t>0,29; 5,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,85</t>
+          <t>0,36; 3,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,3; 9,72</t>
+          <t>2,37; 9,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,52</t>
+          <t>0,41; 1,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 5,43</t>
+          <t>0,57; 5,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,83</t>
+          <t>0,37; 1,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,35</t>
+          <t>1,35; 4,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,58</t>
+          <t>0,59; 2,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,28</t>
+          <t>0,56; 3,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,67; 1,81</t>
+          <t>0,58; 1,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,09</t>
+          <t>1,14; 3,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,46; 3,18</t>
+          <t>0,47; 2,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,85; 5,31</t>
+          <t>0,74; 4,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,8</t>
+          <t>1,03; 3,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,13; 10,46</t>
+          <t>2,99; 9,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,85; 2,55</t>
+          <t>0,99; 2,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,74; 7,58</t>
+          <t>2,71; 7,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,23; 4,24</t>
+          <t>0,24; 2,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,45</t>
+          <t>0,0; 10,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,56</t>
+          <t>0,29; 1,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,13; 4,97</t>
+          <t>2,19; 5,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,81</t>
+          <t>0,42; 1,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,11; 5,42</t>
+          <t>2,12; 5,48</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,54; 1,22</t>
+          <t>0,5; 1,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,37</t>
+          <t>0,8; 1,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,32; 4,27</t>
+          <t>2,32; 4,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,74; 1,21</t>
+          <t>0,71; 1,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,1; 3,32</t>
+          <t>2,1; 3,35</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>379</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1218</t>
+          <t>1343</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1735</t>
+          <t>1722</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>108; 1498</t>
+          <t>82; 1196</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1824; 10462</t>
+          <t>1888; 10699</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>493; 2495</t>
+          <t>584; 2661</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5932; 18252</t>
+          <t>5910; 18884</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>925; 3279</t>
+          <t>779; 3091</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9866; 24032</t>
+          <t>9167; 25035</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>779</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>969</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1384</t>
+          <t>1747</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1818,12 +1818,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>264; 1873</t>
+          <t>211; 2320</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2030; 11191</t>
+          <t>2000; 10393</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1833,12 +1833,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>193; 1327</t>
+          <t>324; 2424</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2185; 10940</t>
+          <t>2155; 10341</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>644; 2659</t>
+          <t>721; 3164</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5532; 17941</t>
+          <t>5880; 18400</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1013</t>
+          <t>1194</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>748</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1689</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>305; 2599</t>
+          <t>450; 2997</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1891; 24298</t>
+          <t>1388; 25615</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1996,12 +1996,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>178; 1798</t>
+          <t>223; 2311</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2249; 9479</t>
+          <t>2308; 9432</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -2011,12 +2011,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>738; 3457</t>
+          <t>890; 3958</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3263; 31134</t>
+          <t>3255; 30280</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1603</t>
+          <t>1342</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2280</t>
+          <t>2072</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3883</t>
+          <t>3414</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>687; 3109</t>
+          <t>629; 2712</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6667; 23309</t>
+          <t>7213; 22118</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2159,12 +2159,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1067; 4565</t>
+          <t>1077; 3765</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3735; 20870</t>
+          <t>3579; 20875</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -2174,12 +2174,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2316; 6270</t>
+          <t>2024; 5464</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12981; 36235</t>
+          <t>13337; 37004</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1097</t>
+          <t>1017</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2068</t>
+          <t>2362</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3165</t>
+          <t>3379</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>353; 2440</t>
+          <t>347; 2194</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1781; 11199</t>
+          <t>1561; 10133</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2322,12 +2322,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>996; 3720</t>
+          <t>1287; 4305</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>13258; 44333</t>
+          <t>12658; 41937</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -2337,12 +2337,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>1790; 5345</t>
+          <t>1983; 5461</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>17409; 48109</t>
+          <t>17226; 46365</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>578</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>960</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1398</t>
+          <t>1537</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2470,12 +2470,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>106; 1917</t>
+          <t>134; 1629</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 20769</t>
+          <t>0; 17023</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2485,12 +2485,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>265; 1841</t>
+          <t>356; 2173</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>10426; 24351</t>
+          <t>10748; 24621</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -2500,12 +2500,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>646; 2952</t>
+          <t>746; 3019</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>13838; 35610</t>
+          <t>13947; 36014</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>5677</t>
+          <t>5288</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>7578</t>
+          <t>8453</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>13255</t>
+          <t>13741</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2633,12 +2633,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3694; 8362</t>
+          <t>3502; 7778</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>26484; 59966</t>
+          <t>26459; 59976</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -2648,12 +2648,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>5240; 10205</t>
+          <t>6301; 11431</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>51290; 94224</t>
+          <t>51144; 94444</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2663,12 +2663,12 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>10496; 17255</t>
+          <t>10639; 17337</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>89980; 142129</t>
+          <t>90172; 143806</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_ANT-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ANT-Clase-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1,22%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,71%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,23%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,37%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,71%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>3,56%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1,78%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>0,8%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>3,52%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>1,78%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>2,28%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,23%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>0,52%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>2,34%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>1,23%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,46; 2,55</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,3; 1,48</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>0,05; 0,73</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,51; 2,92</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,3; 1,48</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>2,05; 6,28</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,8; 3,53</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>0,35; 1,58</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>1,98; 6,32</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,8; 3,53</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>1,37; 3,64</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0,65; 2,14</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>0,24; 0,93</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>1,38; 3,76</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0,65; 2,14</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1,53%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1,68%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,86%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,61%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,68%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>1,9%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1,85%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>0,79%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>2,05%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>1,85%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>1,7%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1,77%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>0,82%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>1,8%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>1,77%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,59; 3,09</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,63; 3,44</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>0,23; 2,57</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,62; 3,21</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,63; 3,44</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>0,77; 3,65</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0,71; 3,88</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0,26; 1,98</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,83; 3,98</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,71; 3,88</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>0,95; 2,94</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0,87; 3,0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>0,34; 1,48</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>1,01; 3,15</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>0,87; 3,0</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>3,61%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3,13%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,78%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,98%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,13%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>4,89%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5,24%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>1,21%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>5,14%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>5,24%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>3,99%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3,79%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>0,9%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>2,52%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>3,79%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>1,68; 6,57</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1,56; 6,59</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>0,29; 1,95</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,29; 5,39</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,56; 6,59</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>2,32; 9,13</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2,21; 12,46</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>0,36; 3,75</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>2,37; 9,67</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>2,21; 12,46</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>2,36; 6,53</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2,27; 6,41</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>0,41; 1,84</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,57; 5,28</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>2,27; 6,41</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>2,6%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1,92%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,79%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,39%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,92%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>3,1%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3,3%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>1,14%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1,82%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>3,3%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>2,82%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2,62%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>0,97%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>2,08%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>2,62%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>1,47; 4,5</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,9; 3,57</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>0,37; 1,6</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,35; 4,13</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,9; 3,57</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>2,0; 4,82</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1,96; 5,19</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>0,59; 2,07</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0,56; 3,28</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>1,96; 5,19</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>1,88; 3,92</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1,75; 3,82</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>0,58; 1,55</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>1,14; 3,16</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>1,75; 3,82</t>
         </is>
       </c>
     </row>
@@ -1073,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>1,9%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,77%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>1,37%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,15%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,77%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>5,97%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2,53%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>1,88%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>5,69%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>2,53%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>4,42%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,16%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>1,69%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>4,52%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>2,16%</t>
         </is>
       </c>
     </row>
@@ -1126,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>0,67; 4,28</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,64; 4,4</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>0,47; 2,95</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,74; 4,81</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,64; 4,4</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>4,42; 8,41</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,98; 4,99</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>1,03; 3,43</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>2,99; 9,89</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>0,98; 4,99</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>3,13; 6,15</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1,12; 3,76</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>0,99; 2,73</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>2,71; 7,31</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>1,12; 3,76</t>
         </is>
       </c>
     </row>
@@ -1183,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>3,28%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>1,04%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,33%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>3,7%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>0,78%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>3,3%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3,6%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>0,86%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>3,31%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1236,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>0,0; 10,41</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>0,24; 2,93</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 10,21</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2,49; 5,38</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>0,29; 1,77</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>2,19; 5,02</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2,39; 5,73</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
+      <c r="K15" s="2" t="inlineStr">
         <is>
           <t>0,42; 1,69</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>2,12; 5,48</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1293,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>2,25%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1,72%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>0,75%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>2,05%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,72%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>3,79%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2,6%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>1,08%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>3,29%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>2,6%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>3,05%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2,15%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>0,92%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>2,69%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>2,15%</t>
         </is>
       </c>
     </row>
@@ -1346,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>1,57; 3,1</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1,22; 2,45</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>0,5; 1,1</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>1,27; 2,88</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>1,22; 2,45</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>3,15; 4,62</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1,87; 3,53</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>0,8; 1,46</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>2,32; 4,28</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>1,87; 3,53</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>2,61; 3,63</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1,72; 2,72</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>0,71; 1,16</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>2,1; 3,35</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>1,72; 2,72</t>
         </is>
       </c>
     </row>
@@ -1479,47 +1479,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>11</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>13</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>4817</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2103</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>379</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>5033</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2103</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>11672</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4928</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>1343</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>10534</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>4928</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>16489</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>7030</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>1722</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>15567</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>7030</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1811; 10090</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>899; 4386</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>82; 1196</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1888; 10699</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>899; 4386</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>6724; 20578</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2210; 9764</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>584; 2661</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>5910; 18884</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2210; 9764</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>9912; 26345</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3723; 12255</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>779; 3091</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>9167; 25035</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>3723; 12255</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>9</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>13</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>5267</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3280</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>779</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>5213</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3280</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>5446</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4294</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>969</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>5326</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>4294</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>10712</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>7574</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>1747</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>10539</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>7574</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>2021; 10654</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1224; 6729</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>211; 2320</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2000; 10393</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1224; 6729</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>2207; 10481</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1650; 9011</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>324; 2424</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>2155; 10341</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1650; 9011</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>5972; 18555</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3725; 12813</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>721; 3164</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>5880; 18400</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>3725; 12813</t>
         </is>
       </c>
     </row>
@@ -1875,47 +1875,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>9</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>9404</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5669</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>1194</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>9408</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>5669</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>5453</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4336</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>748</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>5016</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>4336</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>14857</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>10005</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>1942</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>14424</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>10005</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>4366; 17128</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2830; 11912</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>450; 2997</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1388; 25615</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2830; 11912</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>2588; 10178</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1829; 10316</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>223; 2311</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>2308; 9432</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>1829; 10316</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>8781; 24309</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5983; 16908</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>890; 3958</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>3255; 30280</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>5983; 16908</t>
         </is>
       </c>
     </row>
@@ -2038,47 +2038,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>19</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>28</t>
         </is>
       </c>
     </row>
@@ -2091,47 +2091,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>15844</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5931</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>1342</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>12788</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5931</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>15177</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>10437</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>2072</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>11555</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>10437</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>31021</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>16368</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>3414</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>24343</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>16368</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>8970; 27424</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2766; 11010</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>629; 2712</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>7213; 22118</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>2766; 11010</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>9787; 23610</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>6188; 16410</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>1077; 3765</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>3579; 20875</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>6188; 16410</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>20695; 43096</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>10925; 23859</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>2024; 5464</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>13337; 37004</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>10925; 23859</t>
         </is>
       </c>
     </row>
@@ -2201,14 +2201,14 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
           <t>6</t>
@@ -2216,32 +2216,32 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>18</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>13</t>
         </is>
       </c>
     </row>
@@ -2254,47 +2254,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>4811</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2663</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>1017</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>4535</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>2663</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>24376</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3929</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>2362</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>24122</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>3929</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>29187</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>6592</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>3379</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>28657</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>6592</t>
         </is>
       </c>
     </row>
@@ -2307,47 +2307,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>1684; 10831</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>960; 6612</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>347; 2194</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>1561; 10133</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>960; 6612</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>18042; 34314</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1514; 7739</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>1287; 4305</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>12658; 41937</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>1514; 7739</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>20692; 40648</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3429; 11494</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>1983; 5461</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>17226; 46365</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>3429; 11494</t>
         </is>
       </c>
     </row>
@@ -2364,47 +2364,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="I19" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>9</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -2417,47 +2417,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>5566</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>578</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>5558</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>20211</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="H20" s="2" t="inlineStr">
         <is>
           <t>960</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>16151</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>25777</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="I20" s="2" t="inlineStr">
+      <c r="K20" s="2" t="inlineStr">
         <is>
           <t>1537</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>21709</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -2470,47 +2470,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>0; 17649</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>134; 1629</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>0; 17023</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>13643; 29412</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
+      <c r="H21" s="2" t="inlineStr">
         <is>
           <t>356; 2173</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>10748; 24621</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>17122; 41078</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I21" s="2" t="inlineStr">
+      <c r="K21" s="2" t="inlineStr">
         <is>
           <t>746; 3019</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>13947; 36014</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -2527,29 +2527,29 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>29</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
           <t>46</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
           <t>46</t>
@@ -2557,17 +2557,17 @@
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
           <t>75</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>83</t>
         </is>
       </c>
     </row>
@@ -2580,47 +2580,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>45709</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>19645</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>5288</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>42536</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>19645</t>
-        </is>
-      </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
+          <t>82334</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>27924</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>8453</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>72704</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>27924</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
+          <t>128043</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>47568</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
           <t>13741</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>115240</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>47568</t>
         </is>
       </c>
     </row>
@@ -2633,47 +2633,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>31842; 62917</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>13956; 27926</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>3502; 7778</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>26459; 59976</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>13956; 27926</t>
-        </is>
-      </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
+          <t>68380; 100182</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>20091; 37946</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>6301; 11431</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>51144; 94444</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>20091; 37946</t>
-        </is>
-      </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
+          <t>109586; 152432</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>38095; 60225</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
           <t>10639; 17337</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>90172; 143806</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>38095; 60225</t>
         </is>
       </c>
     </row>
